--- a/documentacao/BurnDownChart.xlsx
+++ b/documentacao/BurnDownChart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D6D45E-495C-441A-A172-EBE487C1C338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05753F1D-1B16-4AB5-969A-9723F5422020}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{42AA1F0A-8F0D-4E67-AD29-C865C38547BE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="3" xr2:uid="{42AA1F0A-8F0D-4E67-AD29-C865C38547BE}"/>
   </bookViews>
   <sheets>
     <sheet name="1ºSprint" sheetId="1" r:id="rId1"/>
@@ -18,21 +18,10 @@
     <sheet name="3ºSprint" sheetId="3" r:id="rId3"/>
     <sheet name="4ºSprint" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2472,10 +2461,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'4ºSprint'!$B$2:$B$21</c:f>
+              <c:f>'4ºSprint'!$B$2:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2535,75 +2524,81 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'4ºSprint'!$E$2:$E$21</c:f>
+              <c:f>'4ºSprint'!$E$2:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>134.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>127.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>120.70000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>113.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>106.50000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>99.400000000000034</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>92.30000000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>85.200000000000045</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>78.100000000000051</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>71.000000000000057</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>63.900000000000055</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>56.800000000000054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>49.700000000000053</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>42.600000000000051</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>35.50000000000005</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>28.400000000000048</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>21.300000000000047</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>14.200000000000047</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>7.1000000000000476</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.7961634663806763E-14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2643,10 +2638,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'4ºSprint'!$B$2:$B$21</c:f>
+              <c:f>'4ºSprint'!$B$2:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2706,74 +2701,80 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'4ºSprint'!$F$2:$F$21</c:f>
+              <c:f>'4ºSprint'!$F$2:$F$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2908,7 +2909,7 @@
         <c:axId val="172262016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="61"/>
+          <c:max val="142"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -6329,7 +6330,7 @@
       <c r="A29" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F29">
+  <sortState ref="A3:F29">
     <sortCondition ref="A11"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -6868,7 +6869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40EB277B-98F4-4D09-9CE2-742A4D975415}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
+    <sheetView zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -6974,7 +6975,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="4">
-        <f t="shared" ref="C5:C23" si="1">$C$2/$B$22</f>
+        <f t="shared" ref="C5:C22" si="1">$C$2/$B$22</f>
         <v>4</v>
       </c>
       <c r="D5">
@@ -7414,8 +7415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C3BA4DD-D0D6-4784-B9D6-4072559AC019}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7452,401 +7453,480 @@
         <v>0</v>
       </c>
       <c r="C2">
+        <v>142</v>
+      </c>
+      <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" s="4">
         <f>C2-D2</f>
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="F2">
         <f>C2</f>
-        <v>0</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>44998</v>
+        <v>45054</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" s="3">
-        <f>$C$2/$B$21</f>
-        <v>0</v>
+        <f>$C$2/$B$22</f>
+        <v>7.1</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
       </c>
       <c r="E3" s="4">
         <f>E2-C3</f>
-        <v>0</v>
+        <v>134.9</v>
       </c>
       <c r="F3">
         <f>F2-D3</f>
-        <v>0</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>44999</v>
+        <v>45055</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" s="3">
-        <f t="shared" ref="C4:C21" si="0">$C$2/$B$21</f>
-        <v>0</v>
+        <f t="shared" ref="C4:C22" si="0">$C$2/$B$22</f>
+        <v>7.1</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
       </c>
       <c r="E4" s="4">
         <f t="shared" ref="E4:F19" si="1">E3-C4</f>
-        <v>0</v>
+        <v>127.80000000000001</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45000</v>
+        <v>45056</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.1</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>120.70000000000002</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45001</v>
+        <v>45057</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.1</v>
+      </c>
+      <c r="D6">
+        <v>12</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>113.60000000000002</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45002</v>
+        <v>45058</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.1</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>106.50000000000003</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45005</v>
+        <v>45061</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.1</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>99.400000000000034</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45006</v>
+        <v>45062</v>
       </c>
       <c r="B9">
         <v>7</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.1</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>92.30000000000004</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45007</v>
+        <v>45063</v>
       </c>
       <c r="B10">
         <v>8</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" si="0"/>
+        <v>7.1</v>
+      </c>
+      <c r="D10">
         <v>0</v>
       </c>
       <c r="E10" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>85.200000000000045</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45008</v>
+        <v>45064</v>
       </c>
       <c r="B11">
         <v>9</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.1</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>78.100000000000051</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>45009</v>
+        <v>45065</v>
       </c>
       <c r="B12">
         <v>10</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" si="0"/>
+        <v>7.1</v>
+      </c>
+      <c r="D12">
         <v>0</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>71.000000000000057</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>45012</v>
+        <v>45068</v>
       </c>
       <c r="B13">
         <v>11</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.1</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
       </c>
       <c r="E13" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>63.900000000000055</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>45013</v>
+        <v>45069</v>
       </c>
       <c r="B14">
         <v>12</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.1</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
       </c>
       <c r="E14" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>56.800000000000054</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>45014</v>
+        <v>45070</v>
       </c>
       <c r="B15">
         <v>13</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.1</v>
+      </c>
+      <c r="D15">
+        <v>12</v>
       </c>
       <c r="E15" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>49.700000000000053</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>45015</v>
+        <v>45071</v>
       </c>
       <c r="B16">
         <v>14</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.1</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
       </c>
       <c r="E16" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>42.600000000000051</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>45016</v>
+        <v>45072</v>
       </c>
       <c r="B17">
         <v>15</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.1</v>
+      </c>
+      <c r="D17">
+        <v>8</v>
       </c>
       <c r="E17" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35.50000000000005</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Q17" s="2"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>45019</v>
+        <v>45075</v>
       </c>
       <c r="B18">
         <v>16</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.1</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
       </c>
       <c r="E18" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>28.400000000000048</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>45020</v>
+        <v>45076</v>
       </c>
       <c r="B19">
         <v>17</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.1</v>
+      </c>
+      <c r="D19">
+        <v>8</v>
       </c>
       <c r="E19" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>21.300000000000047</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>45021</v>
+        <v>45077</v>
       </c>
       <c r="B20">
         <v>18</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.1</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
       </c>
       <c r="E20" s="4">
-        <f t="shared" ref="E20:F21" si="2">E19-C20</f>
-        <v>0</v>
+        <f t="shared" ref="E20:F22" si="2">E19-C20</f>
+        <v>14.200000000000047</v>
       </c>
       <c r="F20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>45022</v>
+        <v>45078</v>
       </c>
       <c r="B21">
         <v>19</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.1</v>
+      </c>
+      <c r="D21">
+        <v>8</v>
       </c>
       <c r="E21" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7.1000000000000476</v>
       </c>
       <c r="F21">
         <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>45079</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22" s="3">
+        <f t="shared" si="0"/>
+        <v>7.1</v>
+      </c>
+      <c r="D22">
+        <v>12</v>
+      </c>
+      <c r="E22" s="4">
+        <f t="shared" si="2"/>
+        <v>4.7961634663806763E-14</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
